--- a/ARM.xlsx
+++ b/ARM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AACE70-6CB0-48F9-84B5-BCD89752BBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017ED8D5-4BB8-43B7-81F1-C7AA3ACFE385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60650" yWindow="2400" windowWidth="15770" windowHeight="19700" xr2:uid="{7A46CFB4-7742-4D8C-B921-902967A33E90}"/>
+    <workbookView xWindow="41530" yWindow="3640" windowWidth="20630" windowHeight="15370" xr2:uid="{7A46CFB4-7742-4D8C-B921-902967A33E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A9E187-6862-4137-BDAC-1F36B55AB00A}">
   <dimension ref="K2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -676,27 +678,27 @@
         <v>2024</v>
       </c>
       <c r="O2" s="1">
-        <f>+N2+1</f>
+        <f t="shared" ref="O2:T2" si="0">+N2+1</f>
         <v>2025</v>
       </c>
       <c r="P2" s="1">
-        <f>+O2+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="Q2" s="1">
-        <f>+P2+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="R2" s="1">
-        <f>+Q2+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="S2" s="1">
-        <f>+R2+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="T2" s="1">
-        <f>+S2+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
@@ -765,11 +767,11 @@
         <v>2027</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" ref="L5:M5" si="0">+L3+L4</f>
+        <f t="shared" ref="L5:M5" si="1">+L3+L4</f>
         <v>2703</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2679</v>
       </c>
       <c r="N5" s="6">
@@ -777,27 +779,27 @@
         <v>3233</v>
       </c>
       <c r="O5" s="6">
-        <f>+N5*1.1</f>
+        <f t="shared" ref="O5:T5" si="2">+N5*1.1</f>
         <v>3556.3</v>
       </c>
       <c r="P5" s="6">
-        <f>+O5*1.1</f>
+        <f t="shared" si="2"/>
         <v>3911.9300000000003</v>
       </c>
       <c r="Q5" s="6">
-        <f>+P5*1.1</f>
+        <f t="shared" si="2"/>
         <v>4303.1230000000005</v>
       </c>
       <c r="R5" s="6">
-        <f>+Q5*1.1</f>
+        <f t="shared" si="2"/>
         <v>4733.435300000001</v>
       </c>
       <c r="S5" s="6">
-        <f>+R5*1.1</f>
+        <f t="shared" si="2"/>
         <v>5206.7788300000011</v>
       </c>
       <c r="T5" s="6">
-        <f>+S5*1.1</f>
+        <f t="shared" si="2"/>
         <v>5727.4567130000014</v>
       </c>
     </row>
@@ -829,11 +831,11 @@
         <v>14</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:D7" si="1">+C5-C6</f>
+        <f t="shared" ref="C7:D7" si="3">+C5-C6</f>
         <v>675.30000000000007</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>757.40000000000009</v>
       </c>
       <c r="E7" s="3">
@@ -857,23 +859,23 @@
         <v>3200.67</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" ref="P7:T7" si="2">+P5*0.9</f>
+        <f t="shared" ref="P7:T7" si="4">+P5*0.9</f>
         <v>3520.7370000000005</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3872.8107000000005</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4260.0917700000009</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4686.1009470000008</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5154.7110417000013</v>
       </c>
     </row>
@@ -905,19 +907,19 @@
         <v>1201.5464999999999</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" ref="Q8:T8" si="3">+P8*1.05</f>
+        <f t="shared" ref="Q8:T8" si="5">+P8*1.05</f>
         <v>1261.6238249999999</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1324.70501625</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1390.9402670625</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1460.487280415625</v>
       </c>
     </row>
@@ -945,23 +947,23 @@
         <v>769.62</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" ref="P9:T9" si="4">+O9*1.05</f>
+        <f t="shared" ref="P9:T9" si="6">+O9*1.05</f>
         <v>808.101</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>848.50605000000007</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>890.93135250000012</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>935.4779201250002</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>982.25181613125028</v>
       </c>
     </row>
@@ -970,11 +972,11 @@
         <v>17</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ref="C10:D10" si="5">+C8+C9</f>
+        <f t="shared" ref="C10:D10" si="7">+C8+C9</f>
         <v>1892</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1892</v>
       </c>
       <c r="L10" s="3">
@@ -990,27 +992,27 @@
         <v>2962</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" ref="O10:S10" si="6">+O8+O9</f>
+        <f t="shared" ref="O10:S10" si="8">+O8+O9</f>
         <v>1913.9499999999998</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2009.6475</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2110.1298750000001</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2215.6363687500002</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2326.4181871875003</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" ref="T10" si="7">+T8+T9</f>
+        <f t="shared" ref="T10" si="9">+T8+T9</f>
         <v>2442.7390965468753</v>
       </c>
     </row>
@@ -1019,11 +1021,11 @@
         <v>18</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:D11" si="8">+C7-C10</f>
+        <f t="shared" ref="C11:D11" si="10">+C7-C10</f>
         <v>-1216.6999999999998</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1134.5999999999999</v>
       </c>
       <c r="L11" s="3">
@@ -1039,27 +1041,27 @@
         <v>117</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" ref="O11:S11" si="9">+O7-O10</f>
+        <f t="shared" ref="O11:S11" si="11">+O7-O10</f>
         <v>1286.7200000000003</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1511.0895000000005</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1762.6808250000004</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2044.4554012500007</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2359.6827598125005</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" ref="T11" si="10">+T7-T10</f>
+        <f t="shared" ref="T11" si="12">+T7-T10</f>
         <v>2711.9719451531259</v>
       </c>
     </row>
@@ -1073,11 +1075,11 @@
         <v>20</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:D13" si="11">+C11+C12</f>
+        <f t="shared" ref="C13:D13" si="13">+C11+C12</f>
         <v>-1216.6999999999998</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1134.5999999999999</v>
       </c>
       <c r="L13" s="3">
@@ -1103,11 +1105,11 @@
         <v>22</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:D15" si="12">+C13-C14</f>
+        <f t="shared" ref="C15:D15" si="14">+C13-C14</f>
         <v>-1216.6999999999998</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1134.5999999999999</v>
       </c>
       <c r="L15" s="3">
@@ -1128,11 +1130,11 @@
         <v>23</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:D16" si="13">+C15/C17</f>
+        <f t="shared" ref="C16:D16" si="15">+C15/C17</f>
         <v>-1.1867534631118359</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.1066741836497813</v>
       </c>
       <c r="E16" s="4"/>
@@ -1147,11 +1149,11 @@
         <v>0.66326321600727256</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" ref="M16:N16" si="14">+M15/M17</f>
+        <f t="shared" ref="M16:N16" si="16">+M15/M17</f>
         <v>0.65985080364572424</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.11201564006406911</v>
       </c>
     </row>
@@ -1180,35 +1182,35 @@
         <v>27</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" ref="D19:L19" si="15">+D5/C5-1</f>
+        <f t="shared" ref="D19:K19" si="17">+D5/C5-1</f>
         <v>0.11279037223621602</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.21768108651911455</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.076964003886574E-2</v>
       </c>
       <c r="L19" s="5">
@@ -1269,11 +1271,11 @@
         <v>26</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:D23" si="16">+C21-C22</f>
+        <f t="shared" ref="C23:D23" si="18">+C21-C22</f>
         <v>424</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>424</v>
       </c>
       <c r="L23" s="3">
